--- a/state_data_info.xlsx
+++ b/state_data_info.xlsx
@@ -1,25 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nw-trading\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\nw-trading\project\gitHub\Cobalt\project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8DCD35F-1B6C-4210-A53D-ED8A0A49B8CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE816F52-16BD-4BEC-8EA0-7A7A6A854E08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="State_data" sheetId="2" r:id="rId1"/>
     <sheet name="State_data_Ref_details" sheetId="3" r:id="rId2"/>
-    <sheet name="Action_data" sheetId="1" r:id="rId3"/>
-    <sheet name="Action_data_2" sheetId="4" r:id="rId4"/>
+    <sheet name="Action_data" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
   <si>
     <t>Market</t>
   </si>
@@ -65,18 +63,9 @@
     <t>Total state variables</t>
   </si>
   <si>
-    <t>Positions(N*2*3)</t>
-  </si>
-  <si>
-    <t>Positions</t>
-  </si>
-  <si>
     <t>Total action variables</t>
   </si>
   <si>
-    <t>cut_degre</t>
-  </si>
-  <si>
     <t>Asset</t>
   </si>
   <si>
@@ -89,12 +78,6 @@
     <t>sigma (N)</t>
   </si>
   <si>
-    <t xml:space="preserve">Prices </t>
-  </si>
-  <si>
-    <t>Quantity of available asset (N)</t>
-  </si>
-  <si>
     <t>Raw</t>
   </si>
   <si>
@@ -158,58 +141,13 @@
     <t>EOM * volume ref / ((spot diff std)^2 * 100 000 000)</t>
   </si>
   <si>
-    <t>Relative spot change (N)</t>
-  </si>
-  <si>
-    <t>intermediate variable in [-1, 1] (N)</t>
-  </si>
-  <si>
-    <t>intermediate variable in [-1, 1] (1)</t>
-  </si>
-  <si>
-    <t>mu (1)</t>
-  </si>
-  <si>
-    <t>sigma (1)</t>
-  </si>
-  <si>
-    <t>Buy</t>
-  </si>
-  <si>
-    <t>Buy quantity euro</t>
-  </si>
-  <si>
-    <t>Free cash quantity</t>
-  </si>
-  <si>
-    <t>Sell</t>
-  </si>
-  <si>
-    <t>Sell quantity euro</t>
-  </si>
-  <si>
-    <t>Prop of free cash quantity (N)</t>
-  </si>
-  <si>
-    <t>Prop of each free asset quantity (N)</t>
-  </si>
-  <si>
-    <t>Free cash quantity (1)</t>
-  </si>
-  <si>
-    <t>Relative spot change buy (N)</t>
-  </si>
-  <si>
-    <t>Prices sell</t>
-  </si>
-  <si>
-    <t>Prices buy</t>
-  </si>
-  <si>
-    <t>Relative spot change sell (N)</t>
-  </si>
-  <si>
-    <t>Values in [0, 1]</t>
+    <t>Relative buy/sell proportions</t>
+  </si>
+  <si>
+    <t>Cash proportion</t>
+  </si>
+  <si>
+    <t>(N) variable in [-1, 1] (N)</t>
   </si>
 </sst>
 </file>
@@ -225,12 +163,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,12 +195,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -531,10 +482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04CEE899-E3C3-4052-9471-E4495360B9B0}">
-  <dimension ref="B2:H15"/>
+  <dimension ref="B2:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -549,7 +500,7 @@
     <col min="9" max="9" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -557,7 +508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>6</v>
       </c>
@@ -565,25 +516,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C6" t="s">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -592,32 +535,20 @@
         <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C9">
-        <f>C2+C2*C3+2*C4*C2+1+C2+2*3*C2</f>
-        <v>274</v>
-      </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
+      <c r="C9" s="2">
+        <f>C2+C2*C3+1+C2</f>
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -630,7 +561,7 @@
   <dimension ref="B6:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,79 +585,79 @@
         <v>0</v>
       </c>
       <c r="J6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="D8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="H8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>36</v>
+      <c r="L9" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -735,83 +666,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:E9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8616EC1D-6F2E-467F-A582-72B9341F1959}">
+  <dimension ref="B2:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <f>2*C2</f>
-        <v>26</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B6:C6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8616EC1D-6F2E-467F-A582-72B9341F1959}">
-  <dimension ref="A2:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -829,7 +688,7 @@
     <col min="11" max="11" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -837,131 +696,48 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="3">
+        <f>C2+1</f>
         <v>14</v>
       </c>
-      <c r="C6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" t="s">
-        <v>15</v>
-      </c>
-      <c r="J6" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>56</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10">
-        <f>4*C2+1</f>
-        <v>53</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
+  <mergeCells count="2">
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
